--- a/biology/Zoologie/Gérard_Berlic/Gérard_Berlic.xlsx
+++ b/biology/Zoologie/Gérard_Berlic/Gérard_Berlic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Berlic</t>
+          <t>Gérard_Berlic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérard Berlic, né à Alger (Algérie française) le 22 septembre 1941 et mort à Canet-en-Roussillon (Pyrénées-Orientales) le 30 novembre 1993, est un enseignant, documentaliste et ornithologue français. C'est l'un des pionniers de l'ornithologie dans les Pyrénées-Orientales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard Berlic, né à Alger (Algérie française) le 22 septembre 1941 et mort à Canet-en-Roussillon (Pyrénées-Orientales) le 30 novembre 1993, est un enseignant, documentaliste et ornithologue français. C'est l'un des pionniers de l'ornithologie dans les Pyrénées-Orientales.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Berlic</t>
+          <t>Gérard_Berlic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'âge de dix-huit ans, il part enseigner dans l'Atlas saharien, où il découvre sa passion pour les oiseaux, intérêt qui se poursuit lorsqu'il s'installe en 1964 en Saône-et-Loire puis à partir de 1971 dans les Pyrénées-Orientales, d'abord en montagne, en Cerdagne, puis sur le littoral. Entre 1976 et 1995, dix-sept publications paraissent sous son nom[1].
-Durant plus de vingt ans, il réalise de nombreux inventaires importants de l'avifaune des Pyrénées-Orientales, publie des comptes-rendus dans diverses revues naturalistes et participe à divers atlas des oiseaux de France. Membre de l'Association régionale ornithologique du Midi et des Pyrénées (AROMP) et de l'Association Charles-Flahaut, il est un des fondateurs du Groupe Ornithologique du Roussillon (GOR)[1]. En 1984, il contribue à sauver la collection de spécimens d'oiseaux du Muséum d'histoire naturelle de Perpignan dont il détermine les espèces d'oiseaux du paléarctique occidental[2].
-Il démontre également la présence de l'ours des Pyrénées dans le massif du Carlit au XIXe siècle en analysant les traces laissées par des individus de cette espèce[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'âge de dix-huit ans, il part enseigner dans l'Atlas saharien, où il découvre sa passion pour les oiseaux, intérêt qui se poursuit lorsqu'il s'installe en 1964 en Saône-et-Loire puis à partir de 1971 dans les Pyrénées-Orientales, d'abord en montagne, en Cerdagne, puis sur le littoral. Entre 1976 et 1995, dix-sept publications paraissent sous son nom.
+Durant plus de vingt ans, il réalise de nombreux inventaires importants de l'avifaune des Pyrénées-Orientales, publie des comptes-rendus dans diverses revues naturalistes et participe à divers atlas des oiseaux de France. Membre de l'Association régionale ornithologique du Midi et des Pyrénées (AROMP) et de l'Association Charles-Flahaut, il est un des fondateurs du Groupe Ornithologique du Roussillon (GOR). En 1984, il contribue à sauver la collection de spécimens d'oiseaux du Muséum d'histoire naturelle de Perpignan dont il détermine les espèces d'oiseaux du paléarctique occidental.
+Il démontre également la présence de l'ours des Pyrénées dans le massif du Carlit au XIXe siècle en analysant les traces laissées par des individus de cette espèce,.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Berlic</t>
+          <t>Gérard_Berlic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le baguage des oiseaux dans les Pyrénées-Orientales : reprises, contrôles, 1952-1991, Naturalia ruscinonensia, 1995</t>
         </is>
